--- a/inflation.xlsx
+++ b/inflation.xlsx
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,6 +147,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1987</v>
       </c>
@@ -559,7 +565,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1988</v>
       </c>
@@ -603,7 +609,7 @@
         <v>123.7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1989</v>
       </c>
@@ -647,7 +653,7 @@
         <v>130.6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1990</v>
       </c>
@@ -691,7 +697,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1991</v>
       </c>
@@ -735,7 +741,7 @@
         <v>144.80000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1992</v>
       </c>
@@ -779,7 +785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1993</v>
       </c>
@@ -823,7 +829,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1994</v>
       </c>
@@ -867,7 +873,7 @@
         <v>158.19999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1995</v>
       </c>
@@ -911,7 +917,7 @@
         <v>162.19999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1996</v>
       </c>
@@ -955,7 +961,7 @@
         <v>166.9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1997</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>170.8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1998</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>173.6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1999</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2000</v>
       </c>
@@ -1131,756 +1137,794 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>2001</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
+        <v>182.2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>182.8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>183.7</v>
+      </c>
+      <c r="E16" s="6">
+        <v>184.2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>184.6</v>
+      </c>
+      <c r="G16" s="6">
+        <v>185.3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>185</v>
+      </c>
+      <c r="I16" s="6">
+        <v>185.1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>185.1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>185</v>
+      </c>
+      <c r="L16" s="6">
+        <v>185</v>
+      </c>
+      <c r="M16" s="6">
+        <v>184.2</v>
+      </c>
+      <c r="N16" s="6">
+        <v>184.4</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="6">
         <v>184.9</v>
       </c>
-      <c r="C16" s="2">
-        <v>185.3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>186.4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>186.6</v>
-      </c>
-      <c r="F16" s="2">
-        <v>187.3</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="C17" s="6">
+        <v>186.1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>187</v>
+      </c>
+      <c r="E17" s="6">
+        <v>187.8</v>
+      </c>
+      <c r="F17" s="6">
+        <v>187.7</v>
+      </c>
+      <c r="G17" s="6">
+        <v>187.8</v>
+      </c>
+      <c r="H17" s="6">
         <v>188.3</v>
       </c>
-      <c r="H16" s="2">
-        <v>187.8</v>
-      </c>
-      <c r="I16" s="2">
-        <v>188.1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>188</v>
-      </c>
-      <c r="K16" s="2">
-        <v>187.8</v>
-      </c>
-      <c r="L16" s="2">
-        <v>187.8</v>
-      </c>
-      <c r="M16" s="2">
-        <v>187.3</v>
-      </c>
-      <c r="N16" s="2">
-        <v>187.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B17" s="2">
-        <v>188.5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="I17" s="6">
+        <v>189.3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="K17" s="6">
         <v>189.9</v>
       </c>
-      <c r="D17" s="2">
-        <v>191.1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>191.8</v>
-      </c>
-      <c r="F17" s="2">
-        <v>191.4</v>
-      </c>
-      <c r="G17" s="2">
-        <v>191.5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>192</v>
-      </c>
-      <c r="I17" s="2">
-        <v>193.1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>193.3</v>
-      </c>
-      <c r="K17" s="2">
-        <v>193.7</v>
-      </c>
-      <c r="L17" s="2">
-        <v>193.4</v>
-      </c>
-      <c r="M17" s="2">
-        <v>193.1</v>
-      </c>
-      <c r="N17" s="2">
-        <v>191.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="L17" s="6">
+        <v>190.1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>189.6</v>
+      </c>
+      <c r="N17" s="6">
+        <v>188.2</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>2003</v>
       </c>
-      <c r="B18" s="2">
-        <v>194.7</v>
-      </c>
-      <c r="C18" s="2">
-        <v>196.2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>197.1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>196.7</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="B18" s="6">
+        <v>190.5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>191.7</v>
+      </c>
+      <c r="D18" s="6">
+        <v>193</v>
+      </c>
+      <c r="E18" s="6">
+        <v>192.6</v>
+      </c>
+      <c r="F18" s="6">
+        <v>192.7</v>
+      </c>
+      <c r="G18" s="6">
+        <v>192.8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>193.5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>194.3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>195</v>
+      </c>
+      <c r="K18" s="6">
+        <v>195.4</v>
+      </c>
+      <c r="L18" s="6">
+        <v>195.1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>194.9</v>
+      </c>
+      <c r="N18" s="6">
+        <v>193.5</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="6">
+        <v>195.9</v>
+      </c>
+      <c r="C19" s="6">
         <v>196.8</v>
       </c>
-      <c r="G18" s="2">
-        <v>196.9</v>
-      </c>
-      <c r="H18" s="2">
-        <v>197.7</v>
-      </c>
-      <c r="I18" s="2">
-        <v>199.1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>199.6</v>
-      </c>
-      <c r="K18" s="2">
-        <v>200</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="D19" s="6">
+        <v>198.6</v>
+      </c>
+      <c r="E19" s="6">
         <v>199.4</v>
       </c>
-      <c r="M18" s="2">
-        <v>199.3</v>
-      </c>
-      <c r="N18" s="2">
-        <v>197.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="F19" s="6">
         <v>199.9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="G19" s="6">
         <v>201.1</v>
       </c>
-      <c r="D19" s="2">
-        <v>203.4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>204</v>
-      </c>
-      <c r="F19" s="2">
-        <v>204.4</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="H19" s="6">
+        <v>201</v>
+      </c>
+      <c r="I19" s="6">
+        <v>201</v>
+      </c>
+      <c r="J19" s="6">
+        <v>201.2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>202.5</v>
+      </c>
+      <c r="L19" s="6">
+        <v>202.6</v>
+      </c>
+      <c r="M19" s="6">
+        <v>201.9</v>
+      </c>
+      <c r="N19" s="6">
+        <v>200.2</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="6">
+        <v>202.6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>203.6</v>
+      </c>
+      <c r="D20" s="6">
         <v>206</v>
       </c>
-      <c r="H19" s="2">
-        <v>205.5</v>
-      </c>
-      <c r="I19" s="2">
-        <v>205.7</v>
-      </c>
-      <c r="J19" s="2">
-        <v>205.9</v>
-      </c>
-      <c r="K19" s="2">
-        <v>207.3</v>
-      </c>
-      <c r="L19" s="2">
-        <v>207.2</v>
-      </c>
-      <c r="M19" s="2">
-        <v>206.8</v>
-      </c>
-      <c r="N19" s="2">
-        <v>204.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B20" s="2">
-        <v>208.1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>208.9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>212.4</v>
-      </c>
-      <c r="E20" s="2">
-        <v>212.5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>211.4</v>
-      </c>
-      <c r="G20" s="2">
-        <v>210.7</v>
-      </c>
-      <c r="H20" s="2">
-        <v>212.5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>214.1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>215.8</v>
-      </c>
-      <c r="K20" s="2">
-        <v>216.6</v>
-      </c>
-      <c r="L20" s="2">
-        <v>215.3</v>
-      </c>
-      <c r="M20" s="2">
-        <v>214.2</v>
-      </c>
-      <c r="N20" s="2">
-        <v>212.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="E20" s="6">
+        <v>206.9</v>
+      </c>
+      <c r="F20" s="6">
+        <v>206.2</v>
+      </c>
+      <c r="G20" s="6">
+        <v>206.2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>207.9</v>
+      </c>
+      <c r="I20" s="6">
+        <v>208.7</v>
+      </c>
+      <c r="J20" s="6">
+        <v>210.8</v>
+      </c>
+      <c r="K20" s="6">
+        <v>211.5</v>
+      </c>
+      <c r="L20" s="6">
+        <v>210</v>
+      </c>
+      <c r="M20" s="6">
+        <v>209</v>
+      </c>
+      <c r="N20" s="6">
+        <v>207.5</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>2006</v>
       </c>
-      <c r="B21" s="2">
-        <v>215.9</v>
-      </c>
-      <c r="C21" s="2">
-        <v>216.4</v>
-      </c>
-      <c r="D21" s="2">
-        <v>218.2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>220.2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>221.6</v>
-      </c>
-      <c r="G21" s="2">
-        <v>222.6</v>
-      </c>
-      <c r="H21" s="2">
-        <v>223.1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>224.1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>222.9</v>
-      </c>
-      <c r="K21" s="2">
-        <v>221.7</v>
-      </c>
-      <c r="L21" s="2">
-        <v>220.9</v>
-      </c>
-      <c r="M21" s="2">
-        <v>221.3</v>
-      </c>
-      <c r="N21" s="2">
-        <v>220.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B21" s="6">
+        <v>211</v>
+      </c>
+      <c r="C21" s="6">
+        <v>211.6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>212.8</v>
+      </c>
+      <c r="E21" s="6">
+        <v>214.7</v>
+      </c>
+      <c r="F21" s="6">
+        <v>215.7</v>
+      </c>
+      <c r="G21" s="6">
+        <v>216.7</v>
+      </c>
+      <c r="H21" s="6">
+        <v>217.5</v>
+      </c>
+      <c r="I21" s="6">
+        <v>218.1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>216.3</v>
+      </c>
+      <c r="K21" s="6">
+        <v>215.2</v>
+      </c>
+      <c r="L21" s="6">
+        <v>214.8</v>
+      </c>
+      <c r="M21" s="6">
+        <v>215.2</v>
+      </c>
+      <c r="N21" s="6">
+        <v>215</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>2007</v>
       </c>
-      <c r="B22" s="2">
-        <v>221.767</v>
-      </c>
-      <c r="C22" s="2">
-        <v>223.066</v>
-      </c>
-      <c r="D22" s="2">
-        <v>224.55099999999999</v>
-      </c>
-      <c r="E22" s="2">
-        <v>225.78</v>
-      </c>
-      <c r="F22" s="2">
-        <v>227.14599999999999</v>
-      </c>
-      <c r="G22" s="2">
-        <v>228.25800000000001</v>
-      </c>
-      <c r="H22" s="2">
-        <v>228.62799999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>228.32599999999999</v>
-      </c>
-      <c r="J22" s="2">
-        <v>228.30799999999999</v>
-      </c>
-      <c r="K22" s="2">
-        <v>228.55199999999999</v>
-      </c>
-      <c r="L22" s="2">
-        <v>229.50399999999999</v>
-      </c>
-      <c r="M22" s="2">
-        <v>229.39500000000001</v>
-      </c>
-      <c r="N22" s="2">
-        <v>226.94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="B22" s="6">
+        <v>215.81299999999999</v>
+      </c>
+      <c r="C22" s="6">
+        <v>216.65100000000001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>218.334</v>
+      </c>
+      <c r="E22" s="6">
+        <v>219.501</v>
+      </c>
+      <c r="F22" s="6">
+        <v>220.59100000000001</v>
+      </c>
+      <c r="G22" s="6">
+        <v>221.57900000000001</v>
+      </c>
+      <c r="H22" s="6">
+        <v>221.94499999999999</v>
+      </c>
+      <c r="I22" s="6">
+        <v>221.559</v>
+      </c>
+      <c r="J22" s="6">
+        <v>221.43600000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <v>221.95099999999999</v>
+      </c>
+      <c r="L22" s="6">
+        <v>223.35599999999999</v>
+      </c>
+      <c r="M22" s="6">
+        <v>223.42500000000001</v>
+      </c>
+      <c r="N22" s="6">
+        <v>220.512</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>2008</v>
       </c>
-      <c r="B23" s="2">
-        <v>229.869</v>
-      </c>
-      <c r="C23" s="2">
-        <v>231.02</v>
-      </c>
-      <c r="D23" s="2">
-        <v>233.12200000000001</v>
-      </c>
-      <c r="E23" s="2">
-        <v>233.822</v>
-      </c>
-      <c r="F23" s="2">
-        <v>236.15100000000001</v>
-      </c>
-      <c r="G23" s="2">
-        <v>238.58</v>
-      </c>
-      <c r="H23" s="2">
-        <v>240.273</v>
-      </c>
-      <c r="I23" s="2">
-        <v>240.55</v>
-      </c>
-      <c r="J23" s="2">
-        <v>240.089</v>
-      </c>
-      <c r="K23" s="2">
-        <v>238.40299999999999</v>
-      </c>
-      <c r="L23" s="2">
-        <v>234.49799999999999</v>
-      </c>
-      <c r="M23" s="2">
-        <v>233.012</v>
-      </c>
-      <c r="N23" s="2">
-        <v>235.78200000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B23" s="6">
+        <v>224.32499999999999</v>
+      </c>
+      <c r="C23" s="6">
+        <v>225.21299999999999</v>
+      </c>
+      <c r="D23" s="6">
+        <v>226.92599999999999</v>
+      </c>
+      <c r="E23" s="6">
+        <v>228.13300000000001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>230.089</v>
+      </c>
+      <c r="G23" s="6">
+        <v>232.649</v>
+      </c>
+      <c r="H23" s="6">
+        <v>234.54499999999999</v>
+      </c>
+      <c r="I23" s="6">
+        <v>233.78800000000001</v>
+      </c>
+      <c r="J23" s="6">
+        <v>232.84100000000001</v>
+      </c>
+      <c r="K23" s="6">
+        <v>230.83699999999999</v>
+      </c>
+      <c r="L23" s="6">
+        <v>227.23599999999999</v>
+      </c>
+      <c r="M23" s="6">
+        <v>225.09100000000001</v>
+      </c>
+      <c r="N23" s="6">
+        <v>229.30600000000001</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>2009</v>
       </c>
-      <c r="B24" s="2">
-        <v>233.40199999999999</v>
-      </c>
-      <c r="C24" s="2">
-        <v>234.66300000000001</v>
-      </c>
-      <c r="D24" s="2">
-        <v>235.06700000000001</v>
-      </c>
-      <c r="E24" s="2">
-        <v>235.58199999999999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>235.97499999999999</v>
-      </c>
-      <c r="G24" s="2">
-        <v>237.172</v>
-      </c>
-      <c r="H24" s="2">
-        <v>237.6</v>
-      </c>
-      <c r="I24" s="2">
-        <v>238.28200000000001</v>
-      </c>
-      <c r="J24" s="2">
-        <v>238.56800000000001</v>
-      </c>
-      <c r="K24" s="2">
-        <v>238.38</v>
-      </c>
-      <c r="L24" s="2">
-        <v>238.77699999999999</v>
-      </c>
-      <c r="M24" s="2">
-        <v>238.42699999999999</v>
-      </c>
-      <c r="N24" s="2">
-        <v>236.82499999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B24" s="6">
+        <v>225.43600000000001</v>
+      </c>
+      <c r="C24" s="6">
+        <v>226.75399999999999</v>
+      </c>
+      <c r="D24" s="6">
+        <v>227.309</v>
+      </c>
+      <c r="E24" s="6">
+        <v>227.84</v>
+      </c>
+      <c r="F24" s="6">
+        <v>228.136</v>
+      </c>
+      <c r="G24" s="6">
+        <v>229.93</v>
+      </c>
+      <c r="H24" s="6">
+        <v>230.154</v>
+      </c>
+      <c r="I24" s="6">
+        <v>230.88300000000001</v>
+      </c>
+      <c r="J24" s="6">
+        <v>231.2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>231.304</v>
+      </c>
+      <c r="L24" s="6">
+        <v>231.708</v>
+      </c>
+      <c r="M24" s="6">
+        <v>231.46199999999999</v>
+      </c>
+      <c r="N24" s="6">
+        <v>229.34299999999999</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>2010</v>
       </c>
-      <c r="B25" s="2">
-        <v>238.97</v>
-      </c>
-      <c r="C25" s="2">
-        <v>238.86199999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>240.101</v>
-      </c>
-      <c r="E25" s="2">
-        <v>240.529</v>
-      </c>
-      <c r="F25" s="2">
-        <v>241.07499999999999</v>
-      </c>
-      <c r="G25" s="2">
-        <v>240.81700000000001</v>
-      </c>
-      <c r="H25" s="2">
-        <v>241.14699999999999</v>
-      </c>
-      <c r="I25" s="2">
-        <v>241.56899999999999</v>
-      </c>
-      <c r="J25" s="2">
-        <v>241.48500000000001</v>
-      </c>
-      <c r="K25" s="2">
-        <v>241.98099999999999</v>
-      </c>
-      <c r="L25" s="2">
-        <v>241.96</v>
-      </c>
-      <c r="M25" s="2">
-        <v>241.874</v>
-      </c>
-      <c r="N25" s="2">
-        <v>240.864</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="B25" s="6">
+        <v>232.29400000000001</v>
+      </c>
+      <c r="C25" s="6">
+        <v>232.38200000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>233.18799999999999</v>
+      </c>
+      <c r="E25" s="6">
+        <v>233.61500000000001</v>
+      </c>
+      <c r="F25" s="6">
+        <v>234.13</v>
+      </c>
+      <c r="G25" s="6">
+        <v>233.834</v>
+      </c>
+      <c r="H25" s="6">
+        <v>233.88499999999999</v>
+      </c>
+      <c r="I25" s="6">
+        <v>234.15</v>
+      </c>
+      <c r="J25" s="6">
+        <v>234.02699999999999</v>
+      </c>
+      <c r="K25" s="6">
+        <v>234.67099999999999</v>
+      </c>
+      <c r="L25" s="6">
+        <v>235.09399999999999</v>
+      </c>
+      <c r="M25" s="6">
+        <v>235.14099999999999</v>
+      </c>
+      <c r="N25" s="6">
+        <v>233.86799999999999</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>2011</v>
       </c>
-      <c r="B26" s="2">
-        <v>242.63900000000001</v>
-      </c>
-      <c r="C26" s="2">
-        <v>243.83199999999999</v>
-      </c>
-      <c r="D26" s="2">
-        <v>245.61699999999999</v>
-      </c>
-      <c r="E26" s="2">
-        <v>246.489</v>
-      </c>
-      <c r="F26" s="2">
-        <v>248.07300000000001</v>
-      </c>
-      <c r="G26" s="2">
-        <v>248.505</v>
-      </c>
-      <c r="H26" s="2">
-        <v>249.16399999999999</v>
-      </c>
-      <c r="I26" s="2">
-        <v>250.05799999999999</v>
-      </c>
-      <c r="J26" s="2">
-        <v>250.559</v>
-      </c>
-      <c r="K26" s="2">
-        <v>250.05099999999999</v>
-      </c>
-      <c r="L26" s="2">
-        <v>249.31700000000001</v>
-      </c>
-      <c r="M26" s="2">
-        <v>248.30699999999999</v>
-      </c>
-      <c r="N26" s="2">
-        <v>247.71799999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="B26" s="6">
+        <v>235.96899999999999</v>
+      </c>
+      <c r="C26" s="6">
+        <v>237.11</v>
+      </c>
+      <c r="D26" s="6">
+        <v>239.07400000000001</v>
+      </c>
+      <c r="E26" s="6">
+        <v>240.267</v>
+      </c>
+      <c r="F26" s="6">
+        <v>241.566</v>
+      </c>
+      <c r="G26" s="6">
+        <v>241.69</v>
+      </c>
+      <c r="H26" s="6">
+        <v>242.28200000000001</v>
+      </c>
+      <c r="I26" s="6">
+        <v>243.03299999999999</v>
+      </c>
+      <c r="J26" s="6">
+        <v>243.32300000000001</v>
+      </c>
+      <c r="K26" s="6">
+        <v>243.01400000000001</v>
+      </c>
+      <c r="L26" s="6">
+        <v>242.65199999999999</v>
+      </c>
+      <c r="M26" s="6">
+        <v>241.98699999999999</v>
+      </c>
+      <c r="N26" s="6">
+        <v>240.99700000000001</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>2012</v>
       </c>
-      <c r="B27" s="2">
-        <v>249.322</v>
-      </c>
-      <c r="C27" s="2">
-        <v>250.285</v>
-      </c>
-      <c r="D27" s="2">
-        <v>251.887</v>
-      </c>
-      <c r="E27" s="2">
-        <v>252.34899999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>252.65199999999999</v>
-      </c>
-      <c r="G27" s="2">
-        <v>252.40600000000001</v>
-      </c>
-      <c r="H27" s="2">
-        <v>252.01599999999999</v>
-      </c>
-      <c r="I27" s="2">
-        <v>253.47200000000001</v>
-      </c>
-      <c r="J27" s="2">
-        <v>254.554</v>
-      </c>
-      <c r="K27" s="2">
-        <v>254.27699999999999</v>
-      </c>
-      <c r="L27" s="2">
-        <v>254.285</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="B27" s="6">
+        <v>242.87899999999999</v>
+      </c>
+      <c r="C27" s="6">
+        <v>243.85</v>
+      </c>
+      <c r="D27" s="6">
+        <v>245.125</v>
+      </c>
+      <c r="E27" s="6">
+        <v>245.85</v>
+      </c>
+      <c r="F27" s="6">
+        <v>245.709</v>
+      </c>
+      <c r="G27" s="6">
+        <v>245.20099999999999</v>
+      </c>
+      <c r="H27" s="6">
+        <v>244.98400000000001</v>
+      </c>
+      <c r="I27" s="6">
+        <v>246.25200000000001</v>
+      </c>
+      <c r="J27" s="6">
+        <v>247.40899999999999</v>
+      </c>
+      <c r="K27" s="6">
+        <v>247.56399999999999</v>
+      </c>
+      <c r="L27" s="6">
+        <v>247.09700000000001</v>
+      </c>
+      <c r="M27" s="6">
+        <v>246.45599999999999</v>
+      </c>
+      <c r="N27" s="6">
+        <v>245.69800000000001</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B28" s="6">
+        <v>247.27699999999999</v>
+      </c>
+      <c r="C28" s="6">
+        <v>248.66499999999999</v>
+      </c>
+      <c r="D28" s="6">
+        <v>248.71899999999999</v>
+      </c>
+      <c r="E28" s="6">
+        <v>248.464</v>
+      </c>
+      <c r="F28" s="6">
+        <v>248.584</v>
+      </c>
+      <c r="G28" s="6">
+        <v>248.851</v>
+      </c>
+      <c r="H28" s="6">
+        <v>249.411</v>
+      </c>
+      <c r="I28" s="6">
+        <v>249.858</v>
+      </c>
+      <c r="J28" s="6">
+        <v>250.23099999999999</v>
+      </c>
+      <c r="K28" s="6">
+        <v>249.32</v>
+      </c>
+      <c r="L28" s="6">
+        <v>249.50299999999999</v>
+      </c>
+      <c r="M28" s="6">
+        <v>249.56700000000001</v>
+      </c>
+      <c r="N28" s="6">
+        <v>249.03800000000001</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B29" s="6">
+        <v>251.04499999999999</v>
+      </c>
+      <c r="C29" s="6">
+        <v>251.233</v>
+      </c>
+      <c r="D29" s="6">
+        <v>252.41300000000001</v>
+      </c>
+      <c r="E29" s="6">
+        <v>252.506</v>
+      </c>
+      <c r="F29" s="6">
+        <v>253.59800000000001</v>
+      </c>
+      <c r="G29" s="6">
         <v>253.55500000000001</v>
       </c>
-      <c r="N27" s="2">
-        <v>252.58799999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B28" s="2">
-        <v>254.80699999999999</v>
-      </c>
-      <c r="C28" s="2">
-        <v>256.23399999999998</v>
-      </c>
-      <c r="D28" s="2">
-        <v>256.589</v>
-      </c>
-      <c r="E28" s="2">
-        <v>255.96700000000001</v>
-      </c>
-      <c r="F28" s="2">
-        <v>256.27</v>
-      </c>
-      <c r="G28" s="2">
-        <v>256.911</v>
-      </c>
-      <c r="H28" s="2">
-        <v>257.32600000000002</v>
-      </c>
-      <c r="I28" s="2">
-        <v>257.65899999999999</v>
-      </c>
-      <c r="J28" s="2">
-        <v>258.50400000000002</v>
-      </c>
-      <c r="K28" s="2">
-        <v>257.06900000000002</v>
-      </c>
-      <c r="L28" s="2">
-        <v>257.37700000000001</v>
-      </c>
-      <c r="M28" s="2">
-        <v>257.28399999999999</v>
-      </c>
-      <c r="N28" s="2">
-        <v>256.83300000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B29" s="2">
-        <v>259.596</v>
-      </c>
-      <c r="C29" s="2">
-        <v>259.01900000000001</v>
-      </c>
-      <c r="D29" s="2">
-        <v>259.971</v>
-      </c>
-      <c r="E29" s="2">
-        <v>259.98500000000001</v>
-      </c>
-      <c r="F29" s="2">
-        <v>261.22500000000002</v>
-      </c>
-      <c r="G29" s="2">
-        <v>261.35000000000002</v>
-      </c>
-      <c r="H29" s="2">
-        <v>261.49799999999999</v>
-      </c>
-      <c r="I29" s="2">
-        <v>261.07499999999999</v>
-      </c>
-      <c r="J29" s="2">
-        <v>261.07400000000001</v>
-      </c>
-      <c r="K29" s="2">
-        <v>260.5</v>
-      </c>
-      <c r="L29" s="2">
-        <v>259.38200000000001</v>
-      </c>
-      <c r="M29" s="2">
-        <v>258.08</v>
-      </c>
-      <c r="N29" s="2">
-        <v>260.23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="H29" s="6">
+        <v>253.833</v>
+      </c>
+      <c r="I29" s="6">
+        <v>253.185</v>
+      </c>
+      <c r="J29" s="6">
+        <v>253.154</v>
+      </c>
+      <c r="K29" s="6">
+        <v>252.73</v>
+      </c>
+      <c r="L29" s="6">
+        <v>251.78100000000001</v>
+      </c>
+      <c r="M29" s="6">
+        <v>250.51900000000001</v>
+      </c>
+      <c r="N29" s="6">
+        <v>252.46299999999999</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>2015</v>
       </c>
-      <c r="B30" s="2">
-        <v>258.37599999999998</v>
-      </c>
-      <c r="C30" s="2">
-        <v>259.24</v>
-      </c>
-      <c r="D30" s="2">
-        <v>259.64699999999999</v>
-      </c>
-      <c r="E30" s="2">
-        <v>259.959</v>
-      </c>
-      <c r="F30" s="2">
-        <v>261.06599999999997</v>
-      </c>
-      <c r="G30" s="2">
-        <v>261.512</v>
-      </c>
-      <c r="H30" s="2">
-        <v>261.19900000000001</v>
-      </c>
-      <c r="I30" s="2">
-        <v>261.34699999999998</v>
-      </c>
-      <c r="J30" s="2">
-        <v>261.887</v>
-      </c>
-      <c r="K30" s="2">
-        <v>261.51499999999999</v>
-      </c>
-      <c r="L30" s="2">
-        <v>261.00900000000001</v>
-      </c>
-      <c r="M30" s="2">
-        <v>259.94099999999997</v>
-      </c>
-      <c r="N30" s="2">
-        <v>260.55799999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="B30" s="6">
+        <v>250.01599999999999</v>
+      </c>
+      <c r="C30" s="6">
+        <v>250.619</v>
+      </c>
+      <c r="D30" s="6">
+        <v>251.45099999999999</v>
+      </c>
+      <c r="E30" s="6">
+        <v>251.76</v>
+      </c>
+      <c r="F30" s="6">
+        <v>252.77</v>
+      </c>
+      <c r="G30" s="6">
+        <v>253.626</v>
+      </c>
+      <c r="H30" s="6">
+        <v>253.405</v>
+      </c>
+      <c r="I30" s="6">
+        <v>252.90299999999999</v>
+      </c>
+      <c r="J30" s="6">
+        <v>252.922</v>
+      </c>
+      <c r="K30" s="6">
+        <v>252.50399999999999</v>
+      </c>
+      <c r="L30" s="6">
+        <v>252.57300000000001</v>
+      </c>
+      <c r="M30" s="6">
+        <v>251.67</v>
+      </c>
+      <c r="N30" s="6">
+        <v>252.185</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>2016</v>
       </c>
-      <c r="B31" s="2">
-        <v>260.34199999999998</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="6">
+        <v>251.739</v>
+      </c>
+      <c r="C31" s="6">
+        <v>252.25</v>
+      </c>
+      <c r="D31" s="6">
+        <v>252.85400000000001</v>
+      </c>
+      <c r="E31" s="6">
+        <v>254.27</v>
+      </c>
+      <c r="F31" s="6">
+        <v>255.023</v>
+      </c>
+      <c r="G31" s="6">
+        <v>255.471</v>
+      </c>
+      <c r="H31" s="6">
+        <v>255.386</v>
+      </c>
+      <c r="I31" s="6">
+        <v>255.54499999999999</v>
+      </c>
+      <c r="J31" s="6">
+        <v>256.08499999999998</v>
+      </c>
+      <c r="K31" s="6">
+        <v>256.60500000000002</v>
+      </c>
+      <c r="L31" s="6">
+        <v>256.541</v>
+      </c>
+      <c r="M31" s="6">
+        <v>256.42700000000002</v>
+      </c>
+      <c r="N31" s="6">
+        <v>254.85</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="6">
+        <v>258.07299999999998</v>
+      </c>
+      <c r="C32" s="6">
+        <v>258.76799999999997</v>
+      </c>
+      <c r="D32" s="6">
+        <v>258.51</v>
+      </c>
+      <c r="E32" s="6">
+        <v>259.16500000000002</v>
+      </c>
+      <c r="F32" s="6">
+        <v>259.38600000000002</v>
+      </c>
+      <c r="G32" s="6">
+        <v>259.33499999999998</v>
+      </c>
+      <c r="H32" s="6">
+        <v>258.83300000000003</v>
+      </c>
+      <c r="I32" s="6">
+        <v>259.50799999999998</v>
+      </c>
+      <c r="J32" s="6">
         <v>260.875</v>
       </c>
-      <c r="D31" s="2">
-        <v>261.50799999999998</v>
-      </c>
-      <c r="E31" s="2">
-        <v>262.61900000000003</v>
-      </c>
-      <c r="F31" s="2">
-        <v>263.31200000000001</v>
-      </c>
-      <c r="G31" s="2">
-        <v>263.87700000000001</v>
-      </c>
-      <c r="H31" s="2">
-        <v>263.72199999999998</v>
-      </c>
-      <c r="I31" s="2">
-        <v>264.16000000000003</v>
-      </c>
-      <c r="J31" s="2">
-        <v>264.60199999999998</v>
-      </c>
-      <c r="K31" s="2">
-        <v>264.738</v>
-      </c>
-      <c r="L31" s="2">
-        <v>265.20299999999997</v>
-      </c>
-      <c r="M31" s="2">
-        <v>265.42099999999999</v>
-      </c>
-      <c r="N31" s="2">
-        <v>263.36500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B32" s="2">
-        <v>266.91699999999997</v>
-      </c>
-      <c r="C32" s="2">
-        <v>267.66199999999998</v>
-      </c>
-      <c r="D32" s="2">
-        <v>267.58199999999999</v>
-      </c>
-      <c r="E32" s="2">
-        <v>267.94799999999998</v>
-      </c>
-      <c r="F32" s="2">
-        <v>268.18299999999999</v>
-      </c>
-      <c r="G32" s="2">
-        <v>268.666</v>
-      </c>
-      <c r="H32" s="2">
-        <v>268.05099999999999</v>
-      </c>
-      <c r="I32" s="2">
-        <v>268.65699999999998</v>
-      </c>
-      <c r="J32" s="2">
-        <v>270.05900000000003</v>
-      </c>
-      <c r="K32" s="2">
-        <v>269.57499999999999</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2">
-        <v>270</v>
-      </c>
+      <c r="K32" s="6">
+        <v>260.58</v>
+      </c>
+      <c r="L32" s="6">
+        <v>260.63</v>
+      </c>
+      <c r="M32" s="6">
+        <v>260.791</v>
+      </c>
+      <c r="N32" s="6">
+        <v>259.53800000000001</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2018</v>
       </c>
       <c r="N33" s="4">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
